--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/word_level_predictions_99.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G23" s="2" t="b">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1750,314 +1750,314 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G46" s="2" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3206,574 +3206,574 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>adequate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4090,158 +4090,158 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G100" s="2" t="b">
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G101" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,213 +5749,213 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-NonEvent</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>4</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>9</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>4</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>10</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>11</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>4</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>12</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6326,936 +6326,936 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>9</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
         <v>5</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>4</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
         <v>5</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
         <v>5</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
         <v>5</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>7</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
         <v>5</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>promptly</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>After</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G144" s="2" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G154" s="2" t="b">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8793,497 +8793,497 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>6</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>22</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>6</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>23</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>6</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>24</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>6</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>25</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>6</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>27</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>6</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>28</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>attempting</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>29</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>flight</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>30</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>away</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L165" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>before</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>attempting</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>flight</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/word_level_predictions_99.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G23" s="2" t="b">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1750,314 +1750,314 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G46" s="2" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3206,574 +3206,574 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>2</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>11</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>2</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>12</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>2</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>13</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>2</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>14</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>2</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>adequate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>15</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>2</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>16</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>18</v>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>21</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4090,158 +4090,158 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>3</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
         <v>3</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" t="n">
         <v>6</v>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" t="n">
         <v>3</v>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" t="n">
         <v>7</v>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G100" s="2" t="b">
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G101" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,213 +5749,213 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Missed_E-NonEvent</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6326,936 +6326,936 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>5</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>3</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>5</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>5</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>5</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>5</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>5</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" s="2" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G154" s="2" t="b">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -8817,473 +8817,473 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" s="2" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K164" t="b">
-        <v>1</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" s="2" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K165" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K166" t="b">
-        <v>1</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K167" t="b">
-        <v>1</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>before</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>attempting</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
